--- a/Data/RuntimeIIR(completed)-Benign.xlsx
+++ b/Data/RuntimeIIR(completed)-Benign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boxiang\Desktop\REU-Android-Spring2022\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC30B5BA-50D2-4311-9B6B-AB31D08F21AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F47FAB-572A-474B-AEEC-0BFCC60D277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -252,14 +252,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,7 +1245,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="600000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2374,7 +2374,7 @@
   <dimension ref="C2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2646,28 +2646,28 @@
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>0.17326362957430899</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>6.9532237673830596E-3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>2.9002320185614799E-2</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="8">
         <v>0.246391239422598</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>0</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="8">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>0</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2675,28 +2675,28 @@
       <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>0.31958762886597902</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>3.1043593130779298E-2</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>2.6297577854671201E-2</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>0.12859195402298801</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>0</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <v>0</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>0</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>19</v>
       </c>
       <c r="B2" s="2">
@@ -2848,7 +2848,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2">
         <v>2011</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2">
         <v>2012</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2">
         <v>2013</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2">
         <v>2014</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2">
         <v>2015</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2">
         <v>2016</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2">
         <v>2017</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>21</v>
       </c>
       <c r="B11" s="2">
@@ -3231,7 +3231,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2">
         <v>2011</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2">
         <v>2012</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2">
         <v>2013</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="2">
         <v>2014</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2">
         <v>2015</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2">
         <v>2016</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2">
         <v>2017</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>22</v>
       </c>
       <c r="B20" s="2">
@@ -3614,7 +3614,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="2">
         <v>2011</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2">
         <v>2012</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="2">
         <v>2013</v>
       </c>
@@ -3740,7 +3740,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="2">
         <v>2014</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="2">
         <v>2015</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2">
         <v>2016</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="2">
         <v>2017</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
@@ -3953,7 +3953,7 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>23</v>
       </c>
       <c r="B29" s="2">
@@ -3997,7 +3997,7 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2">
         <v>2011</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2">
         <v>2012</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="2">
         <v>2013</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="2">
         <v>2014</v>
       </c>
@@ -4165,7 +4165,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="2">
         <v>2015</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="2">
         <v>2016</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="2">
         <v>2017</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="9">
         <v>24</v>
       </c>
       <c r="B38" s="2">
@@ -4380,7 +4380,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="2">
         <v>2011</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="2">
         <v>2012</v>
       </c>
@@ -4464,7 +4464,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="2">
         <v>2013</v>
       </c>
@@ -4506,7 +4506,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="2">
         <v>2014</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="2">
         <v>2015</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="2">
         <v>2016</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="2">
         <v>2017</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>25</v>
       </c>
       <c r="B47" s="2">
@@ -4763,7 +4763,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="2">
         <v>2011</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="2">
         <v>2012</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="2">
         <v>2013</v>
       </c>
@@ -4889,7 +4889,7 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="2">
         <v>2014</v>
       </c>
@@ -4931,7 +4931,7 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="2">
         <v>2015</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="2">
         <v>2016</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="2">
         <v>2017</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="2" t="s">
         <v>2</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="9">
         <v>26</v>
       </c>
       <c r="B56" s="2">
@@ -5146,7 +5146,7 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="2">
         <v>2011</v>
       </c>
@@ -5188,7 +5188,7 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="2">
         <v>2012</v>
       </c>
@@ -5230,7 +5230,7 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="2">
         <v>2013</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="2">
         <v>2014</v>
       </c>
@@ -5314,7 +5314,7 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="2">
         <v>2015</v>
       </c>
@@ -5356,7 +5356,7 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="2">
         <v>2016</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="2">
         <v>2017</v>
       </c>
@@ -5440,7 +5440,7 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="9">
         <v>27</v>
       </c>
       <c r="B65" s="2">
@@ -5529,7 +5529,7 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="2">
         <v>2011</v>
       </c>
@@ -5571,7 +5571,7 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="2">
         <v>2012</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="2">
         <v>2013</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="2">
         <v>2014</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="2">
         <v>2015</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="2">
         <v>2016</v>
       </c>
@@ -5781,7 +5781,7 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="2">
         <v>2017</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="2" t="s">
         <v>2</v>
       </c>
